--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>What?</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Train abilites, select powers, and select feats shouldn't be selectable unless a subclass is chosen</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>CharacterEditor.xaml.cs</t>
   </si>
   <si>
@@ -175,6 +169,45 @@
   </si>
   <si>
     <t>input preview for height,weight, and age aren't working</t>
+  </si>
+  <si>
+    <t>all details</t>
+  </si>
+  <si>
+    <t>add a cancel button or an X</t>
+  </si>
+  <si>
+    <t>can't back out or cancel when you click on something, but then don't want to do it. Like a deity or even more so a build.</t>
+  </si>
+  <si>
+    <t>all deselect</t>
+  </si>
+  <si>
+    <t>When clicking choose for me and then deselect it errors out because no ui element was selected</t>
+  </si>
+  <si>
+    <t>Fixing or tieing into the ui to show selected canvas when using choose for me can fix this.</t>
+  </si>
+  <si>
+    <t>Add ability to create customer races, classes, powers, feats, etc. Allow for import and export</t>
+  </si>
+  <si>
+    <t>builds</t>
+  </si>
+  <si>
+    <t>in details and descriptions, whenever a power, feat, or etc is mentioned display it inside as it should be visual represented.</t>
+  </si>
+  <si>
+    <t>This is going to take a bit of work to first have the full lists of powers and feats inside the db, then to create the ui element templates it will fill, and finally to somehow bind or code behind that when they are in ther that it needs to be rendered and not just a string.</t>
+  </si>
+  <si>
+    <t>remove builds as they are only implemented for PHB1, or find them in other books like MP2</t>
+  </si>
+  <si>
+    <t>Add in the detail to the feats in the details page</t>
+  </si>
+  <si>
+    <t>character</t>
   </si>
 </sst>
 </file>
@@ -538,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A740DE8-0E08-4FCC-AEA0-7E95C1E82BDA}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,9 +604,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -585,9 +616,7 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -596,88 +625,84 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,82 +710,143 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
